--- a/src/integrationTest/resources/Staff Data Test incorrect function.xlsx
+++ b/src/integrationTest/resources/Staff Data Test incorrect function.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/429962/hmcts/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F5FA2C-B596-2F49-AE5B-84009465AA28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C01E658-5CE7-5945-84D7-AC910437E426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="2" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" firstSheet="2" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
     <sheet name="Terminology" sheetId="12" r:id="rId2"/>
-    <sheet name="Case Worker Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
     <sheet name="User Type" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="Services" sheetId="7" state="hidden" r:id="rId5"/>
     <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="1215">
   <si>
     <t>Region</t>
   </si>
@@ -3378,30 +3378,6 @@
   </si>
   <si>
     <t>Primary Base Location ID</t>
-  </si>
-  <si>
-    <t>Area of Work2 ID</t>
-  </si>
-  <si>
-    <t>Area of Work1 ID</t>
-  </si>
-  <si>
-    <t>Area of Work3 ID</t>
-  </si>
-  <si>
-    <t>Area of Work4 ID</t>
-  </si>
-  <si>
-    <t>Area of Work5 ID</t>
-  </si>
-  <si>
-    <t>Area of Work6 ID</t>
-  </si>
-  <si>
-    <t>Area of Work7 ID</t>
-  </si>
-  <si>
-    <t>Area of Work8 ID</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -3659,6 +3635,60 @@
   </si>
   <si>
     <t>numericlastname</t>
+  </si>
+  <si>
+    <t>Service1</t>
+  </si>
+  <si>
+    <t>Service1 ID</t>
+  </si>
+  <si>
+    <t>Service2</t>
+  </si>
+  <si>
+    <t>Service2 ID</t>
+  </si>
+  <si>
+    <t>Service3</t>
+  </si>
+  <si>
+    <t>Service3 ID</t>
+  </si>
+  <si>
+    <t>Service4</t>
+  </si>
+  <si>
+    <t>Service4 ID</t>
+  </si>
+  <si>
+    <t>Service5</t>
+  </si>
+  <si>
+    <t>Service5 ID</t>
+  </si>
+  <si>
+    <t>Service6</t>
+  </si>
+  <si>
+    <t>Service6 ID</t>
+  </si>
+  <si>
+    <t>Service7</t>
+  </si>
+  <si>
+    <t>Service7 ID</t>
+  </si>
+  <si>
+    <t>Service8</t>
+  </si>
+  <si>
+    <t>Service8 ID</t>
+  </si>
+  <si>
+    <t>Case Allocator</t>
+  </si>
+  <si>
+    <t>Task Supervisor</t>
   </si>
 </sst>
 </file>
@@ -3971,9 +4001,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4017,6 +4044,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4956,2491 +4986,2491 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="29" max="34" width="9.1640625" style="33"/>
+    <col min="29" max="34" width="9.1640625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="31" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-    </row>
-    <row r="27" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+    </row>
+    <row r="27" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:28" ht="26" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="31"/>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="31"/>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="31"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="30"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="30"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="31"/>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="31"/>
-      <c r="W52" s="31"/>
-      <c r="X52" s="31"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="31"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="31"/>
-      <c r="W53" s="31"/>
-      <c r="X53" s="31"/>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="31"/>
-      <c r="AB53" s="31"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31"/>
-      <c r="W54" s="31"/>
-      <c r="X54" s="31"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="31"/>
-      <c r="AB54" s="31"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="30"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="31"/>
-      <c r="W55" s="31"/>
-      <c r="X55" s="31"/>
-      <c r="Y55" s="31"/>
-      <c r="Z55" s="31"/>
-      <c r="AA55" s="31"/>
-      <c r="AB55" s="31"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="30"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="31"/>
-    </row>
-    <row r="57" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+    </row>
+    <row r="57" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:28" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="31"/>
-      <c r="B59" s="32" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="31"/>
-      <c r="X59" s="31"/>
-      <c r="Y59" s="31"/>
-      <c r="Z59" s="31"/>
-      <c r="AA59" s="31"/>
-      <c r="AB59" s="31"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="31" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="30"/>
+      <c r="V59" s="30"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="30"/>
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="30"/>
+      <c r="AA59" s="30"/>
+      <c r="AB59" s="30"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="31"/>
-      <c r="W60" s="31"/>
-      <c r="X60" s="31"/>
-      <c r="Y60" s="31"/>
-      <c r="Z60" s="31"/>
-      <c r="AA60" s="31"/>
-      <c r="AB60" s="31"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
+      <c r="U60" s="30"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="30"/>
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="30"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="30"/>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31"/>
-      <c r="V61" s="31"/>
-      <c r="W61" s="31"/>
-      <c r="X61" s="31"/>
-      <c r="Y61" s="31"/>
-      <c r="Z61" s="31"/>
-      <c r="AA61" s="31"/>
-      <c r="AB61" s="31"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="30"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="30"/>
+      <c r="Y61" s="30"/>
+      <c r="Z61" s="30"/>
+      <c r="AA61" s="30"/>
+      <c r="AB61" s="30"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="31"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="31"/>
-      <c r="X62" s="31"/>
-      <c r="Y62" s="31"/>
-      <c r="Z62" s="31"/>
-      <c r="AA62" s="31"/>
-      <c r="AB62" s="31"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30"/>
+      <c r="Y62" s="30"/>
+      <c r="Z62" s="30"/>
+      <c r="AA62" s="30"/>
+      <c r="AB62" s="30"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="31"/>
-      <c r="W63" s="31"/>
-      <c r="X63" s="31"/>
-      <c r="Y63" s="31"/>
-      <c r="Z63" s="31"/>
-      <c r="AA63" s="31"/>
-      <c r="AB63" s="31"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
+      <c r="AA63" s="30"/>
+      <c r="AB63" s="30"/>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="31"/>
-      <c r="V64" s="31"/>
-      <c r="W64" s="31"/>
-      <c r="X64" s="31"/>
-      <c r="Y64" s="31"/>
-      <c r="Z64" s="31"/>
-      <c r="AA64" s="31"/>
-      <c r="AB64" s="31"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="30"/>
+      <c r="AB64" s="30"/>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="31"/>
-      <c r="V65" s="31"/>
-      <c r="W65" s="31"/>
-      <c r="X65" s="31"/>
-      <c r="Y65" s="31"/>
-      <c r="Z65" s="31"/>
-      <c r="AA65" s="31"/>
-      <c r="AB65" s="31"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="30"/>
+      <c r="AB65" s="30"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="31"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="31"/>
-      <c r="W66" s="31"/>
-      <c r="X66" s="31"/>
-      <c r="Y66" s="31"/>
-      <c r="Z66" s="31"/>
-      <c r="AA66" s="31"/>
-      <c r="AB66" s="31"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="30"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="30"/>
+      <c r="AA66" s="30"/>
+      <c r="AB66" s="30"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="31"/>
-      <c r="U67" s="31"/>
-      <c r="V67" s="31"/>
-      <c r="W67" s="31"/>
-      <c r="X67" s="31"/>
-      <c r="Y67" s="31"/>
-      <c r="Z67" s="31"/>
-      <c r="AA67" s="31"/>
-      <c r="AB67" s="31"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="30"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="31"/>
-      <c r="T68" s="31"/>
-      <c r="U68" s="31"/>
-      <c r="V68" s="31"/>
-      <c r="W68" s="31"/>
-      <c r="X68" s="31"/>
-      <c r="Y68" s="31"/>
-      <c r="Z68" s="31"/>
-      <c r="AA68" s="31"/>
-      <c r="AB68" s="31"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="30"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="30"/>
+      <c r="Y68" s="30"/>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="30"/>
+      <c r="AB68" s="30"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="31"/>
-      <c r="V69" s="31"/>
-      <c r="W69" s="31"/>
-      <c r="X69" s="31"/>
-      <c r="Y69" s="31"/>
-      <c r="Z69" s="31"/>
-      <c r="AA69" s="31"/>
-      <c r="AB69" s="31"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
+      <c r="Q69" s="30"/>
+      <c r="R69" s="30"/>
+      <c r="S69" s="30"/>
+      <c r="T69" s="30"/>
+      <c r="U69" s="30"/>
+      <c r="V69" s="30"/>
+      <c r="W69" s="30"/>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="30"/>
+      <c r="AA69" s="30"/>
+      <c r="AB69" s="30"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="31"/>
-      <c r="S70" s="31"/>
-      <c r="T70" s="31"/>
-      <c r="U70" s="31"/>
-      <c r="V70" s="31"/>
-      <c r="W70" s="31"/>
-      <c r="X70" s="31"/>
-      <c r="Y70" s="31"/>
-      <c r="Z70" s="31"/>
-      <c r="AA70" s="31"/>
-      <c r="AB70" s="31"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="30"/>
+      <c r="U70" s="30"/>
+      <c r="V70" s="30"/>
+      <c r="W70" s="30"/>
+      <c r="X70" s="30"/>
+      <c r="Y70" s="30"/>
+      <c r="Z70" s="30"/>
+      <c r="AA70" s="30"/>
+      <c r="AB70" s="30"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="31"/>
-      <c r="P71" s="31"/>
-      <c r="Q71" s="31"/>
-      <c r="R71" s="31"/>
-      <c r="S71" s="31"/>
-      <c r="T71" s="31"/>
-      <c r="U71" s="31"/>
-      <c r="V71" s="31"/>
-      <c r="W71" s="31"/>
-      <c r="X71" s="31"/>
-      <c r="Y71" s="31"/>
-      <c r="Z71" s="31"/>
-      <c r="AA71" s="31"/>
-      <c r="AB71" s="31"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+      <c r="R71" s="30"/>
+      <c r="S71" s="30"/>
+      <c r="T71" s="30"/>
+      <c r="U71" s="30"/>
+      <c r="V71" s="30"/>
+      <c r="W71" s="30"/>
+      <c r="X71" s="30"/>
+      <c r="Y71" s="30"/>
+      <c r="Z71" s="30"/>
+      <c r="AA71" s="30"/>
+      <c r="AB71" s="30"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="31"/>
-      <c r="Q72" s="31"/>
-      <c r="R72" s="31"/>
-      <c r="S72" s="31"/>
-      <c r="T72" s="31"/>
-      <c r="U72" s="31"/>
-      <c r="V72" s="31"/>
-      <c r="W72" s="31"/>
-      <c r="X72" s="31"/>
-      <c r="Y72" s="31"/>
-      <c r="Z72" s="31"/>
-      <c r="AA72" s="31"/>
-      <c r="AB72" s="31"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="30"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="30"/>
+      <c r="U72" s="30"/>
+      <c r="V72" s="30"/>
+      <c r="W72" s="30"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="30"/>
+      <c r="AA72" s="30"/>
+      <c r="AB72" s="30"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31"/>
-      <c r="O73" s="31"/>
-      <c r="P73" s="31"/>
-      <c r="Q73" s="31"/>
-      <c r="R73" s="31"/>
-      <c r="S73" s="31"/>
-      <c r="T73" s="31"/>
-      <c r="U73" s="31"/>
-      <c r="V73" s="31"/>
-      <c r="W73" s="31"/>
-      <c r="X73" s="31"/>
-      <c r="Y73" s="31"/>
-      <c r="Z73" s="31"/>
-      <c r="AA73" s="31"/>
-      <c r="AB73" s="31"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="30"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="30"/>
+      <c r="U73" s="30"/>
+      <c r="V73" s="30"/>
+      <c r="W73" s="30"/>
+      <c r="X73" s="30"/>
+      <c r="Y73" s="30"/>
+      <c r="Z73" s="30"/>
+      <c r="AA73" s="30"/>
+      <c r="AB73" s="30"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="31"/>
-      <c r="Q74" s="31"/>
-      <c r="R74" s="31"/>
-      <c r="S74" s="31"/>
-      <c r="T74" s="31"/>
-      <c r="U74" s="31"/>
-      <c r="V74" s="31"/>
-      <c r="W74" s="31"/>
-      <c r="X74" s="31"/>
-      <c r="Y74" s="31"/>
-      <c r="Z74" s="31"/>
-      <c r="AA74" s="31"/>
-      <c r="AB74" s="31"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="30"/>
+      <c r="R74" s="30"/>
+      <c r="S74" s="30"/>
+      <c r="T74" s="30"/>
+      <c r="U74" s="30"/>
+      <c r="V74" s="30"/>
+      <c r="W74" s="30"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="30"/>
+      <c r="AA74" s="30"/>
+      <c r="AB74" s="30"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="31"/>
-      <c r="Q75" s="31"/>
-      <c r="R75" s="31"/>
-      <c r="S75" s="31"/>
-      <c r="T75" s="31"/>
-      <c r="U75" s="31"/>
-      <c r="V75" s="31"/>
-      <c r="W75" s="31"/>
-      <c r="X75" s="31"/>
-      <c r="Y75" s="31"/>
-      <c r="Z75" s="31"/>
-      <c r="AA75" s="31"/>
-      <c r="AB75" s="31"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="30"/>
+      <c r="Q75" s="30"/>
+      <c r="R75" s="30"/>
+      <c r="S75" s="30"/>
+      <c r="T75" s="30"/>
+      <c r="U75" s="30"/>
+      <c r="V75" s="30"/>
+      <c r="W75" s="30"/>
+      <c r="X75" s="30"/>
+      <c r="Y75" s="30"/>
+      <c r="Z75" s="30"/>
+      <c r="AA75" s="30"/>
+      <c r="AB75" s="30"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="31"/>
-      <c r="Q76" s="31"/>
-      <c r="R76" s="31"/>
-      <c r="S76" s="31"/>
-      <c r="T76" s="31"/>
-      <c r="U76" s="31"/>
-      <c r="V76" s="31"/>
-      <c r="W76" s="31"/>
-      <c r="X76" s="31"/>
-      <c r="Y76" s="31"/>
-      <c r="Z76" s="31"/>
-      <c r="AA76" s="31"/>
-      <c r="AB76" s="31"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="30"/>
+      <c r="T76" s="30"/>
+      <c r="U76" s="30"/>
+      <c r="V76" s="30"/>
+      <c r="W76" s="30"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="30"/>
+      <c r="AA76" s="30"/>
+      <c r="AB76" s="30"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="31"/>
-      <c r="Q77" s="31"/>
-      <c r="R77" s="31"/>
-      <c r="S77" s="31"/>
-      <c r="T77" s="31"/>
-      <c r="U77" s="31"/>
-      <c r="V77" s="31"/>
-      <c r="W77" s="31"/>
-      <c r="X77" s="31"/>
-      <c r="Y77" s="31"/>
-      <c r="Z77" s="31"/>
-      <c r="AA77" s="31"/>
-      <c r="AB77" s="31"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="30"/>
+      <c r="U77" s="30"/>
+      <c r="V77" s="30"/>
+      <c r="W77" s="30"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
+      <c r="AA77" s="30"/>
+      <c r="AB77" s="30"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="31"/>
-      <c r="Q78" s="31"/>
-      <c r="R78" s="31"/>
-      <c r="S78" s="31"/>
-      <c r="T78" s="31"/>
-      <c r="U78" s="31"/>
-      <c r="V78" s="31"/>
-      <c r="W78" s="31"/>
-      <c r="X78" s="31"/>
-      <c r="Y78" s="31"/>
-      <c r="Z78" s="31"/>
-      <c r="AA78" s="31"/>
-      <c r="AB78" s="31"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="30"/>
+      <c r="U78" s="30"/>
+      <c r="V78" s="30"/>
+      <c r="W78" s="30"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="30"/>
+      <c r="AA78" s="30"/>
+      <c r="AB78" s="30"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="31"/>
-      <c r="P79" s="31"/>
-      <c r="Q79" s="31"/>
-      <c r="R79" s="31"/>
-      <c r="S79" s="31"/>
-      <c r="T79" s="31"/>
-      <c r="U79" s="31"/>
-      <c r="V79" s="31"/>
-      <c r="W79" s="31"/>
-      <c r="X79" s="31"/>
-      <c r="Y79" s="31"/>
-      <c r="Z79" s="31"/>
-      <c r="AA79" s="31"/>
-      <c r="AB79" s="31"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
+      <c r="Q79" s="30"/>
+      <c r="R79" s="30"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="30"/>
+      <c r="U79" s="30"/>
+      <c r="V79" s="30"/>
+      <c r="W79" s="30"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="30"/>
+      <c r="Z79" s="30"/>
+      <c r="AA79" s="30"/>
+      <c r="AB79" s="30"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="31"/>
-      <c r="O80" s="31"/>
-      <c r="P80" s="31"/>
-      <c r="Q80" s="31"/>
-      <c r="R80" s="31"/>
-      <c r="S80" s="31"/>
-      <c r="T80" s="31"/>
-      <c r="U80" s="31"/>
-      <c r="V80" s="31"/>
-      <c r="W80" s="31"/>
-      <c r="X80" s="31"/>
-      <c r="Y80" s="31"/>
-      <c r="Z80" s="31"/>
-      <c r="AA80" s="31"/>
-      <c r="AB80" s="31"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="30"/>
+      <c r="R80" s="30"/>
+      <c r="S80" s="30"/>
+      <c r="T80" s="30"/>
+      <c r="U80" s="30"/>
+      <c r="V80" s="30"/>
+      <c r="W80" s="30"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="30"/>
+      <c r="Z80" s="30"/>
+      <c r="AA80" s="30"/>
+      <c r="AB80" s="30"/>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="31"/>
-      <c r="O81" s="31"/>
-      <c r="P81" s="31"/>
-      <c r="Q81" s="31"/>
-      <c r="R81" s="31"/>
-      <c r="S81" s="31"/>
-      <c r="T81" s="31"/>
-      <c r="U81" s="31"/>
-      <c r="V81" s="31"/>
-      <c r="W81" s="31"/>
-      <c r="X81" s="31"/>
-      <c r="Y81" s="31"/>
-      <c r="Z81" s="31"/>
-      <c r="AA81" s="31"/>
-      <c r="AB81" s="31"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="30"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="30"/>
+      <c r="U81" s="30"/>
+      <c r="V81" s="30"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="30"/>
+      <c r="AA81" s="30"/>
+      <c r="AB81" s="30"/>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="31"/>
-      <c r="O82" s="31"/>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="31"/>
-      <c r="R82" s="31"/>
-      <c r="S82" s="31"/>
-      <c r="T82" s="31"/>
-      <c r="U82" s="31"/>
-      <c r="V82" s="31"/>
-      <c r="W82" s="31"/>
-      <c r="X82" s="31"/>
-      <c r="Y82" s="31"/>
-      <c r="Z82" s="31"/>
-      <c r="AA82" s="31"/>
-      <c r="AB82" s="31"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="30"/>
+      <c r="R82" s="30"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="30"/>
+      <c r="U82" s="30"/>
+      <c r="V82" s="30"/>
+      <c r="W82" s="30"/>
+      <c r="X82" s="30"/>
+      <c r="Y82" s="30"/>
+      <c r="Z82" s="30"/>
+      <c r="AA82" s="30"/>
+      <c r="AB82" s="30"/>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="31"/>
-      <c r="P83" s="31"/>
-      <c r="Q83" s="31"/>
-      <c r="R83" s="31"/>
-      <c r="S83" s="31"/>
-      <c r="T83" s="31"/>
-      <c r="U83" s="31"/>
-      <c r="V83" s="31"/>
-      <c r="W83" s="31"/>
-      <c r="X83" s="31"/>
-      <c r="Y83" s="31"/>
-      <c r="Z83" s="31"/>
-      <c r="AA83" s="31"/>
-      <c r="AB83" s="31"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="30"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="30"/>
+      <c r="U83" s="30"/>
+      <c r="V83" s="30"/>
+      <c r="W83" s="30"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="30"/>
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="30"/>
+      <c r="AB83" s="30"/>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31"/>
-      <c r="O84" s="31"/>
-      <c r="P84" s="31"/>
-      <c r="Q84" s="31"/>
-      <c r="R84" s="31"/>
-      <c r="S84" s="31"/>
-      <c r="T84" s="31"/>
-      <c r="U84" s="31"/>
-      <c r="V84" s="31"/>
-      <c r="W84" s="31"/>
-      <c r="X84" s="31"/>
-      <c r="Y84" s="31"/>
-      <c r="Z84" s="31"/>
-      <c r="AA84" s="31"/>
-      <c r="AB84" s="31"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+      <c r="R84" s="30"/>
+      <c r="S84" s="30"/>
+      <c r="T84" s="30"/>
+      <c r="U84" s="30"/>
+      <c r="V84" s="30"/>
+      <c r="W84" s="30"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="30"/>
+      <c r="AA84" s="30"/>
+      <c r="AB84" s="30"/>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="31"/>
-      <c r="O85" s="31"/>
-      <c r="P85" s="31"/>
-      <c r="Q85" s="31"/>
-      <c r="R85" s="31"/>
-      <c r="S85" s="31"/>
-      <c r="T85" s="31"/>
-      <c r="U85" s="31"/>
-      <c r="V85" s="31"/>
-      <c r="W85" s="31"/>
-      <c r="X85" s="31"/>
-      <c r="Y85" s="31"/>
-      <c r="Z85" s="31"/>
-      <c r="AA85" s="31"/>
-      <c r="AB85" s="31"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="30"/>
+      <c r="R85" s="30"/>
+      <c r="S85" s="30"/>
+      <c r="T85" s="30"/>
+      <c r="U85" s="30"/>
+      <c r="V85" s="30"/>
+      <c r="W85" s="30"/>
+      <c r="X85" s="30"/>
+      <c r="Y85" s="30"/>
+      <c r="Z85" s="30"/>
+      <c r="AA85" s="30"/>
+      <c r="AB85" s="30"/>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="31"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="31"/>
-      <c r="P86" s="31"/>
-      <c r="Q86" s="31"/>
-      <c r="R86" s="31"/>
-      <c r="S86" s="31"/>
-      <c r="T86" s="31"/>
-      <c r="U86" s="31"/>
-      <c r="V86" s="31"/>
-      <c r="W86" s="31"/>
-      <c r="X86" s="31"/>
-      <c r="Y86" s="31"/>
-      <c r="Z86" s="31"/>
-      <c r="AA86" s="31"/>
-      <c r="AB86" s="31"/>
-    </row>
-    <row r="87" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30"/>
+      <c r="R86" s="30"/>
+      <c r="S86" s="30"/>
+      <c r="T86" s="30"/>
+      <c r="U86" s="30"/>
+      <c r="V86" s="30"/>
+      <c r="W86" s="30"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="30"/>
+      <c r="AA86" s="30"/>
+      <c r="AB86" s="30"/>
+    </row>
+    <row r="87" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:28" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="dCZGVj48cggE9ZjEXkdGZKnHsQY8eblCf6sL1hnmPp0gUdEoaYYTMDSoFT4P+JTs3ruv01EV8qYmUs/nCLWwBA==" saltValue="LGIzYwvzNSbOElz0zNHmwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7466,180 +7496,180 @@
     <col min="2" max="2" width="104.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>1175</v>
       </c>
-      <c r="B1" s="34" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>1177</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>1179</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="B9" t="s">
         <v>1181</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="B11" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="B12" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>1185</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="B22" t="s">
         <v>1188</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1196</v>
       </c>
     </row>
   </sheetData>
@@ -7653,205 +7683,211 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="40" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="62.5" style="41" customWidth="1"/>
+    <col min="6" max="6" width="62.5" style="40" customWidth="1"/>
     <col min="7" max="7" width="33.83203125" customWidth="1"/>
-    <col min="8" max="8" width="49.83203125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="49.83203125" style="40" customWidth="1"/>
     <col min="9" max="9" width="32.1640625" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="41" customWidth="1"/>
-    <col min="11" max="11" width="25.5" style="41" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="41" customWidth="1"/>
-    <col min="13" max="13" width="24" style="41" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="40" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="40" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="40" customWidth="1"/>
+    <col min="13" max="13" width="24" style="40" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="41" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" style="40" customWidth="1"/>
     <col min="16" max="16" width="21.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" style="41" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" style="40" customWidth="1"/>
     <col min="18" max="18" width="19.1640625" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" style="41" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" style="40" customWidth="1"/>
     <col min="20" max="20" width="19.1640625" customWidth="1"/>
-    <col min="21" max="21" width="16" style="41" customWidth="1"/>
+    <col min="21" max="21" width="16" style="40" customWidth="1"/>
     <col min="22" max="22" width="16" customWidth="1"/>
-    <col min="23" max="23" width="14.5" style="41" customWidth="1"/>
+    <col min="23" max="23" width="14.5" style="40" customWidth="1"/>
     <col min="24" max="24" width="14.5" customWidth="1"/>
-    <col min="25" max="25" width="17.33203125" style="41" customWidth="1"/>
+    <col min="25" max="25" width="17.33203125" style="40" customWidth="1"/>
     <col min="26" max="26" width="17.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.5" style="41" customWidth="1"/>
+    <col min="27" max="27" width="14.5" style="40" customWidth="1"/>
     <col min="28" max="28" width="14.5" customWidth="1"/>
     <col min="29" max="29" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>1107</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>1108</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>1109</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>1110</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>55</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>1111</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>56</v>
       </c>
       <c r="I1" s="26" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="M1" s="38" t="s">
         <v>1197</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>1113</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="29" t="s">
+      <c r="N1" s="43" t="s">
+        <v>1198</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>1199</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>1200</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>1201</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>1202</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>1203</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>1204</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>1205</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>1206</v>
+      </c>
+      <c r="W1" s="38" t="s">
+        <v>1207</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Y1" s="38" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AA1" s="38" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="29" t="s">
         <v>1112</v>
       </c>
-      <c r="Q1" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>1114</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>1115</v>
-      </c>
-      <c r="U1" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>1116</v>
-      </c>
-      <c r="W1" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>1117</v>
-      </c>
-      <c r="Y1" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" s="28" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AA1" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD1" s="30" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="42" t="s">
+      <c r="AE1" s="29" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1">
         <f>_xlfn.IFNA(VLOOKUP(D2,Region!$A$2:$B$11,2),"")</f>
         <v>3</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>73</v>
       </c>
       <c r="G2" s="1">
         <f>_xlfn.IFNA(VLOOKUP(F2,'Base Locations'!$A$1:$F$341,2),"")</f>
         <v>239985</v>
       </c>
-      <c r="H2" s="42"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H2,'Base Locations'!A1:F341,2),"")</f>
         <v/>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(M2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="41"/>
       <c r="P2" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(O2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Q2" s="42"/>
+      <c r="Q2" s="41"/>
       <c r="R2" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(Q2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="S2" s="42"/>
+      <c r="S2" s="41"/>
       <c r="T2" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(S2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="U2" s="42"/>
+      <c r="U2" s="41"/>
       <c r="V2" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(U2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="W2" s="42"/>
+      <c r="W2" s="41"/>
       <c r="X2" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(W2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Y2" s="42"/>
+      <c r="Y2" s="41"/>
       <c r="Z2" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(Y2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="AA2" s="42"/>
+      <c r="AA2" s="41"/>
       <c r="AB2" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(AA2,Services!$A$1:$B$45,2),"")</f>
         <v/>
@@ -7859,74 +7895,74 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D3" s="42" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1">
         <f>IF(ISNA(VLOOKUP(D2,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D2,Region!$A$1:$B$9,2,FALSE))</f>
         <v>3</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>73</v>
       </c>
       <c r="G3" s="1">
         <f>_xlfn.IFNA(VLOOKUP(F3,'Base Locations'!$A$1:$F$341,2),"")</f>
         <v>239985</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H3,'Base Locations'!A2:F342,2),"")</f>
         <v/>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(M3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="O3" s="42"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(O3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Q3" s="42"/>
+      <c r="Q3" s="41"/>
       <c r="R3" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(Q3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="S3" s="42"/>
+      <c r="S3" s="41"/>
       <c r="T3" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(S3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="U3" s="42"/>
+      <c r="U3" s="41"/>
       <c r="V3" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(U3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="W3" s="42"/>
+      <c r="W3" s="41"/>
       <c r="X3" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(W3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Y3" s="42"/>
+      <c r="Y3" s="41"/>
       <c r="Z3" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(Y3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="AA3" s="42"/>
+      <c r="AA3" s="41"/>
       <c r="AB3" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(AA3,Services!$A$1:$B$45,2),"")</f>
         <v/>
@@ -7934,58 +7970,58 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="42"/>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="42"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H4,'Base Locations'!A3:F343,2),"")</f>
         <v/>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(M4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="O4" s="42"/>
+      <c r="O4" s="41"/>
       <c r="P4" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(O4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Q4" s="42"/>
+      <c r="Q4" s="41"/>
       <c r="R4" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(Q4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="S4" s="42"/>
+      <c r="S4" s="41"/>
       <c r="T4" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(S4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="U4" s="42"/>
+      <c r="U4" s="41"/>
       <c r="V4" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(U4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="W4" s="42"/>
+      <c r="W4" s="41"/>
       <c r="X4" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(W4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Y4" s="42"/>
+      <c r="Y4" s="41"/>
       <c r="Z4" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(Y4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="AA4" s="42"/>
+      <c r="AA4" s="41"/>
       <c r="AB4" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(AA4,Services!$A$1:$B$45,2),"")</f>
         <v/>
@@ -7993,73 +8029,73 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B5" s="42">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B5" s="41">
         <v>12345</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="42" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>73</v>
       </c>
       <c r="G5" s="1">
         <f>_xlfn.IFNA(VLOOKUP(F5,'Base Locations'!$A$1:$F$341,2),"")</f>
         <v>239985</v>
       </c>
-      <c r="H5" s="42"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H5,'Base Locations'!A4:F344,2),"")</f>
         <v/>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(M5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="O5" s="42"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(O5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="41"/>
       <c r="R5" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(Q5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="S5" s="42"/>
+      <c r="S5" s="41"/>
       <c r="T5" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(S5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="U5" s="42"/>
+      <c r="U5" s="41"/>
       <c r="V5" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(U5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="W5" s="42"/>
+      <c r="W5" s="41"/>
       <c r="X5" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(W5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Y5" s="42"/>
+      <c r="Y5" s="41"/>
       <c r="Z5" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(Y5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="AA5" s="42"/>
+      <c r="AA5" s="41"/>
       <c r="AB5" s="1" t="str">
         <f>_xlfn.IFNA(VLOOKUP(AA5,Services!$A$1:$B$45,2),"")</f>
         <v/>
@@ -8147,7 +8183,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -8188,7 +8224,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8196,47 +8232,47 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="B3" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="B4" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="B5" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="B6" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="B7" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8244,7 +8280,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -8252,7 +8288,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -8260,7 +8296,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -8268,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -8276,7 +8312,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -8284,7 +8320,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -8292,7 +8328,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -8300,7 +8336,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -8308,7 +8344,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -8316,7 +8352,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -8324,7 +8360,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -8332,7 +8368,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -8340,7 +8376,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -8348,7 +8384,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -8356,7 +8392,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -8364,7 +8400,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -8372,7 +8408,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -8380,7 +8416,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -8388,7 +8424,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -8396,7 +8432,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -8404,7 +8440,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -8412,7 +8448,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -8420,7 +8456,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -8428,7 +8464,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -8436,7 +8472,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -8444,7 +8480,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -8452,7 +8488,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -8460,7 +8496,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -8468,7 +8504,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -8476,7 +8512,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -8484,7 +8520,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -8492,7 +8528,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -8500,7 +8536,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -8508,7 +8544,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -8516,7 +8552,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -8524,7 +8560,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -8532,7 +8568,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -8540,7 +8576,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
@@ -15926,7 +15962,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/src/integrationTest/resources/Staff Data Test incorrect function.xlsx
+++ b/src/integrationTest/resources/Staff Data Test incorrect function.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2109032/RDCC4025/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C01E658-5CE7-5945-84D7-AC910437E426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25CF76F-FFCD-2A4A-9BBA-EABB4BEB97A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" firstSheet="2" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19620" activeTab="7" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
     <sheet name="Terminology" sheetId="12" r:id="rId2"/>
     <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
-    <sheet name="User Type" sheetId="9" state="hidden" r:id="rId4"/>
-    <sheet name="Services" sheetId="7" state="hidden" r:id="rId5"/>
-    <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="User Type" sheetId="9" r:id="rId4"/>
+    <sheet name="Services" sheetId="7" r:id="rId5"/>
+    <sheet name="Base Locations" sheetId="6" r:id="rId6"/>
     <sheet name="Region" sheetId="3" r:id="rId7"/>
-    <sheet name="Roles" sheetId="4" state="hidden" r:id="rId8"/>
-    <sheet name="Validations" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="Roles" sheetId="4" r:id="rId8"/>
+    <sheet name="Validations" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="1223">
   <si>
     <t>Region</t>
   </si>
@@ -3689,6 +3689,30 @@
   </si>
   <si>
     <t>Task Supervisor</t>
+  </si>
+  <si>
+    <t>Hearing Centre Team Leader </t>
+  </si>
+  <si>
+    <t>Hearing Centre Administrator</t>
+  </si>
+  <si>
+    <t>Court Clerk</t>
+  </si>
+  <si>
+    <t>National Business Centre Team leader</t>
+  </si>
+  <si>
+    <t>National Business Centre Listing team</t>
+  </si>
+  <si>
+    <t>National Business Centre Payments team</t>
+  </si>
+  <si>
+    <t>CTSC team leader</t>
+  </si>
+  <si>
+    <t>CTSC Administrator</t>
   </si>
 </sst>
 </file>
@@ -7685,8 +7709,8 @@
   </sheetPr>
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView topLeftCell="J1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7703,23 +7727,23 @@
     <col min="10" max="10" width="15.5" style="40" customWidth="1"/>
     <col min="11" max="11" width="25.5" style="40" customWidth="1"/>
     <col min="12" max="12" width="19.5" style="40" customWidth="1"/>
-    <col min="13" max="13" width="24" style="40" customWidth="1"/>
-    <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="21.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" style="40" customWidth="1"/>
-    <col min="18" max="18" width="19.1640625" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" style="40" customWidth="1"/>
-    <col min="20" max="20" width="19.1640625" customWidth="1"/>
-    <col min="21" max="21" width="16" style="40" customWidth="1"/>
-    <col min="22" max="22" width="16" customWidth="1"/>
-    <col min="23" max="23" width="14.5" style="40" customWidth="1"/>
-    <col min="24" max="24" width="14.5" customWidth="1"/>
-    <col min="25" max="25" width="17.33203125" style="40" customWidth="1"/>
-    <col min="26" max="26" width="17.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.5" style="40" customWidth="1"/>
-    <col min="28" max="28" width="14.5" customWidth="1"/>
-    <col min="29" max="29" width="25.5" customWidth="1"/>
+    <col min="16" max="16" width="24" style="40" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" style="40" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" style="40" customWidth="1"/>
+    <col min="21" max="21" width="5.5" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" style="40" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" customWidth="1"/>
+    <col min="24" max="24" width="16" style="40" customWidth="1"/>
+    <col min="25" max="25" width="16" customWidth="1"/>
+    <col min="26" max="26" width="14.5" style="40" customWidth="1"/>
+    <col min="27" max="27" width="14.5" customWidth="1"/>
+    <col min="28" max="28" width="8" style="40" customWidth="1"/>
+    <col min="29" max="29" width="17.33203125" customWidth="1"/>
+    <col min="30" max="30" width="14.5" style="40" customWidth="1"/>
+    <col min="31" max="31" width="14.5" customWidth="1"/>
+    <col min="32" max="32" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -7759,65 +7783,65 @@
       <c r="L1" s="37" t="s">
         <v>411</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="29" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>1213</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>1214</v>
+      </c>
+      <c r="P1" s="38" t="s">
         <v>1197</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="Q1" s="43" t="s">
         <v>1198</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>1199</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>1200</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="T1" s="39" t="s">
         <v>1201</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>1202</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="V1" s="38" t="s">
         <v>1203</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>1204</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>1205</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>1206</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="Z1" s="38" t="s">
         <v>1207</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>1208</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>1209</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>1210</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>1211</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>1212</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
         <v>2</v>
-      </c>
-      <c r="AD1" s="29" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AE1" s="29" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AF1" s="29" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -7852,48 +7876,50 @@
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
       <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M2,Services!$A$1:$B$45,2),"")</f>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(P2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O2,Services!$A$1:$B$45,2),"")</f>
+      <c r="R2" s="41"/>
+      <c r="S2" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(R2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q2,Services!$A$1:$B$45,2),"")</f>
+      <c r="T2" s="41"/>
+      <c r="U2" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(T2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="S2" s="41"/>
-      <c r="T2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S2,Services!$A$1:$B$45,2),"")</f>
+      <c r="V2" s="41"/>
+      <c r="W2" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(V2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U2,Services!$A$1:$B$45,2),"")</f>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(X2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W2,Services!$A$1:$B$45,2),"")</f>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Z2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y2,Services!$A$1:$B$45,2),"")</f>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AB2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA2,Services!$A$1:$B$45,2),"")</f>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AD2,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+      <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
@@ -7927,48 +7953,50 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
       <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M3,Services!$A$1:$B$45,2),"")</f>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(P3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O3,Services!$A$1:$B$45,2),"")</f>
+      <c r="R3" s="41"/>
+      <c r="S3" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(R3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q3,Services!$A$1:$B$45,2),"")</f>
+      <c r="T3" s="41"/>
+      <c r="U3" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(T3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S3,Services!$A$1:$B$45,2),"")</f>
+      <c r="V3" s="41"/>
+      <c r="W3" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(V3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="U3" s="41"/>
-      <c r="V3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U3,Services!$A$1:$B$45,2),"")</f>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(X3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="W3" s="41"/>
-      <c r="X3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W3,Services!$A$1:$B$45,2),"")</f>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Z3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y3,Services!$A$1:$B$45,2),"")</f>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AB3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA3,Services!$A$1:$B$45,2),"")</f>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AD3,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
+      <c r="AF3" s="1"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
@@ -7986,48 +8014,50 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M4,Services!$A$1:$B$45,2),"")</f>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(P4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O4,Services!$A$1:$B$45,2),"")</f>
+      <c r="R4" s="41"/>
+      <c r="S4" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(R4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q4,Services!$A$1:$B$45,2),"")</f>
+      <c r="T4" s="41"/>
+      <c r="U4" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(T4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S4,Services!$A$1:$B$45,2),"")</f>
+      <c r="V4" s="41"/>
+      <c r="W4" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(V4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U4,Services!$A$1:$B$45,2),"")</f>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(X4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="W4" s="41"/>
-      <c r="X4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W4,Services!$A$1:$B$45,2),"")</f>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Z4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y4,Services!$A$1:$B$45,2),"")</f>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AB4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA4,Services!$A$1:$B$45,2),"")</f>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AD4,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
@@ -8060,48 +8090,50 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(M5,Services!$A$1:$B$45,2),"")</f>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(P5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(O5,Services!$A$1:$B$45,2),"")</f>
+      <c r="R5" s="41"/>
+      <c r="S5" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(R5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Q5,Services!$A$1:$B$45,2),"")</f>
+      <c r="T5" s="41"/>
+      <c r="U5" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(T5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="S5" s="41"/>
-      <c r="T5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(S5,Services!$A$1:$B$45,2),"")</f>
+      <c r="V5" s="41"/>
+      <c r="W5" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(V5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="U5" s="41"/>
-      <c r="V5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(U5,Services!$A$1:$B$45,2),"")</f>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(X5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="W5" s="41"/>
-      <c r="X5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(W5,Services!$A$1:$B$45,2),"")</f>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Z5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(Y5,Services!$A$1:$B$45,2),"")</f>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AB5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="1" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(AA5,Services!$A$1:$B$45,2),"")</f>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="1" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AD5,Services!$A$1:$B$45,2),"")</f>
         <v/>
       </c>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="AF5" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -8114,7 +8146,7 @@
   <pageSetup orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{59E03A7D-BE45-4297-A5D7-EB6269AFA3E9}">
           <x14:formula1>
             <xm:f>Region!$A$1:$A$9</xm:f>
@@ -8125,7 +8157,7 @@
           <x14:formula1>
             <xm:f>Services!$A$1:$A$43</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O5 M2:M5 AA2:AA5 Y2:Y5 W2:W5 U2:U5 S2:S5 Q2:Q5</xm:sqref>
+          <xm:sqref>R2:R5 P2:P5 AD2:AD5 AB2:AB5 Z2:Z5 X2:X5 V2:V5 T2:T5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{69AD3E96-9986-4437-A6D2-54EE41465A4B}">
           <x14:formula1>
@@ -8143,13 +8175,13 @@
           <x14:formula1>
             <xm:f>Roles!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:L5</xm:sqref>
+          <xm:sqref>K2:O5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B1666EF-45EA-466E-BF9B-CD6C235D8633}">
           <x14:formula1>
             <xm:f>Validations!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>AD2:AD5</xm:sqref>
+          <xm:sqref>M2:M5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8198,7 +8230,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IrVQ7Ukz2v/R7gQxangUL5wAqS1715tiGhzT8zLeCz8UJwUIBrCLI/UycSYlC8mt/P4bgWL9vpSls59MeyEaVg==" saltValue="9syDTPxVg8TLEzOvGTicbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8580,7 +8611,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aMZLA0VNhh5Onc5JvFgRcO+m2AuGfgKZ7BoJklGYjHaipO31AQ3xGW7Ut3i3WYaf9wFLoxFNYPTBp+0/KJwncA==" saltValue="2GsNMsCJLWlXXOIX1gAyDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15812,7 +15842,6 @@
     <row r="741" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="742" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m8UckgdD1dcYD9lqf4mZ6sweQUAjls9wUBQbAbH6Fx4sDdSYOTY5ss+Y9DW0iJlEs+St9Rf87Aa3SmKNJ6YBnQ==" saltValue="jfT1mkCRVBT5GRvlbF+nFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="A287" r:id="rId1" display="https://courttribunalfinder.service.gov.uk/courts/sunderland-county-family-magistrates-and-tribunal-hearings" xr:uid="{E75D3469-3062-4D00-9760-56E3C0055DF4}"/>
   </hyperlinks>
@@ -15906,7 +15935,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9Dzbl1Vp2as7XYFJXUh3e5BVC8sA06Mwnij3IjqsMXS9OIFgu8FBluC3Lbx7+HH6n1k9gv2FDDtFo6g8N0a+SA==" saltValue="2ONKPZCzYuddgylpf3RncA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15916,10 +15944,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15944,8 +15972,71 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K9Ci/eHmkmskFS0u1ZcnQkRZSqVBH/Kvod5Cg143QmMMqKBzxu71t7mKY0rKC7jAIRToE1wAYtCUnAacyc3hTg==" saltValue="vAGcL88qkz3LKuOeKothwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15971,7 +16062,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D22dSHc3htXuo0x/4I3E9zXiFJcvy3Um+2pZMVdKjhStG73OU02OP04I/9LO7uth2Ls3E1T7wBkvo4tC4iIMtQ==" saltValue="zUVhzd2HkNeGZm+LUf4U+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/integrationTest/resources/Staff Data Test incorrect function.xlsx
+++ b/src/integrationTest/resources/Staff Data Test incorrect function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2109032/RDCC4025/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25CF76F-FFCD-2A4A-9BBA-EABB4BEB97A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5AD8E6-77D4-134B-A8A8-1CF80B9D5C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19620" activeTab="7" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1268,12 +1266,6 @@
     <t>York Magistrates' Court and Family Court</t>
   </si>
   <si>
-    <t>Senior Tribunal Caseworker</t>
-  </si>
-  <si>
-    <t>Tribunal Caseworker</t>
-  </si>
-  <si>
     <t>Primary Role</t>
   </si>
   <si>
@@ -3713,6 +3705,12 @@
   </si>
   <si>
     <t>CTSC Administrator</t>
+  </si>
+  <si>
+    <t>Legal Caseworker</t>
+  </si>
+  <si>
+    <t>Senior Legal Caseworker</t>
   </si>
 </sst>
 </file>
@@ -5016,7 +5014,7 @@
     <row r="1" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="31" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -5800,7 +5798,7 @@
     <row r="29" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -6644,7 +6642,7 @@
     <row r="59" spans="1:28" ht="26" x14ac:dyDescent="0.3">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -7522,34 +7520,34 @@
   <sheetData>
     <row r="1" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7557,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7565,15 +7563,15 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B7" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7581,15 +7579,15 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B9" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -7597,23 +7595,23 @@
         <v>54</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7621,7 +7619,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7629,7 +7627,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7637,7 +7635,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7645,7 +7643,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7653,7 +7651,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7661,7 +7659,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7669,7 +7667,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7677,7 +7675,7 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7685,15 +7683,15 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B22" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
@@ -7709,7 +7707,7 @@
   </sheetPr>
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -7748,97 +7746,97 @@
   <sheetData>
     <row r="1" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>1107</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>1109</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>55</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H1" s="36" t="s">
         <v>56</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="P1" s="38" t="s">
+        <v>1195</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>1196</v>
+      </c>
+      <c r="R1" s="36" t="s">
         <v>1197</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="S1" s="28" t="s">
         <v>1198</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="T1" s="39" t="s">
         <v>1199</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>1200</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="V1" s="38" t="s">
         <v>1201</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>1202</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>1203</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="Y1" s="27" t="s">
         <v>1204</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="Z1" s="38" t="s">
         <v>1205</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>1206</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>1207</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>1208</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>1209</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>1210</v>
-      </c>
-      <c r="AD1" s="38" t="s">
-        <v>1211</v>
-      </c>
-      <c r="AE1" s="27" t="s">
-        <v>1212</v>
       </c>
       <c r="AF1" s="27" t="s">
         <v>2</v>
@@ -7846,13 +7844,13 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>5</v>
@@ -7923,13 +7921,13 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B3" s="41" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>1191</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>1193</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>5</v>
@@ -8061,13 +8059,13 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B5" s="41">
         <v>12345</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>5</v>
@@ -8215,7 +8213,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -8255,7 +8253,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8263,47 +8261,47 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B7" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8311,7 +8309,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -8319,7 +8317,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -8327,7 +8325,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -8335,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -8343,7 +8341,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -8351,7 +8349,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -8359,7 +8357,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -8367,7 +8365,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -8375,7 +8373,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -8383,7 +8381,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -8391,7 +8389,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -8399,7 +8397,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -8407,7 +8405,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -8415,7 +8413,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -8423,7 +8421,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -8431,7 +8429,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -8439,7 +8437,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -8447,7 +8445,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -8455,7 +8453,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -8463,7 +8461,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -8471,7 +8469,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -8479,7 +8477,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -8487,7 +8485,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -8495,7 +8493,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -8503,7 +8501,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -8511,7 +8509,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -8519,7 +8517,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -8527,7 +8525,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -8535,7 +8533,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -8543,7 +8541,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -8551,7 +8549,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -8559,7 +8557,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -8567,7 +8565,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -8575,7 +8573,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -8583,7 +8581,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -8591,7 +8589,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -8599,7 +8597,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -8607,7 +8605,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
@@ -8640,22 +8638,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8670,10 +8668,10 @@
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8688,10 +8686,10 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="18" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8705,13 +8703,13 @@
         <v>65</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8725,13 +8723,13 @@
         <v>66</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8745,13 +8743,13 @@
         <v>66</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8765,13 +8763,13 @@
         <v>66</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>417</v>
-      </c>
       <c r="F7" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8786,10 +8784,10 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8803,13 +8801,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8823,13 +8821,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8843,13 +8841,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8863,13 +8861,13 @@
         <v>65</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8883,13 +8881,13 @@
         <v>67</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8903,13 +8901,13 @@
         <v>66</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8923,13 +8921,13 @@
         <v>66</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8943,13 +8941,13 @@
         <v>65</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8963,13 +8961,13 @@
         <v>65</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8983,13 +8981,13 @@
         <v>66</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9003,13 +9001,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9023,13 +9021,13 @@
         <v>6</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -9043,13 +9041,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -9063,13 +9061,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9083,13 +9081,13 @@
         <v>67</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9103,13 +9101,13 @@
         <v>5</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9123,13 +9121,13 @@
         <v>5</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9143,13 +9141,13 @@
         <v>5</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9163,13 +9161,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9183,13 +9181,13 @@
         <v>5</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9203,13 +9201,13 @@
         <v>5</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9223,13 +9221,13 @@
         <v>67</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9243,13 +9241,13 @@
         <v>67</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9263,13 +9261,13 @@
         <v>67</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9283,13 +9281,13 @@
         <v>67</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9303,13 +9301,13 @@
         <v>67</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9323,13 +9321,13 @@
         <v>67</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -9344,10 +9342,10 @@
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9361,13 +9359,13 @@
         <v>65</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9381,13 +9379,13 @@
         <v>67</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9395,19 +9393,19 @@
         <v>106</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -9421,13 +9419,13 @@
         <v>5</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9441,13 +9439,13 @@
         <v>65</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9461,13 +9459,13 @@
         <v>6</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9481,13 +9479,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9501,13 +9499,13 @@
         <v>6</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -9521,13 +9519,13 @@
         <v>4</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9541,13 +9539,13 @@
         <v>6</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9561,13 +9559,13 @@
         <v>66</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9581,13 +9579,13 @@
         <v>66</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9601,13 +9599,13 @@
         <v>66</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9621,13 +9619,13 @@
         <v>66</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9641,13 +9639,13 @@
         <v>65</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9661,13 +9659,13 @@
         <v>65</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9681,13 +9679,13 @@
         <v>65</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -9701,13 +9699,13 @@
         <v>4</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -9721,13 +9719,13 @@
         <v>4</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9741,13 +9739,13 @@
         <v>67</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9761,13 +9759,13 @@
         <v>67</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9781,13 +9779,13 @@
         <v>67</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9801,13 +9799,13 @@
         <v>66</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -9822,10 +9820,10 @@
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9839,13 +9837,13 @@
         <v>66</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9859,13 +9857,13 @@
         <v>66</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9879,13 +9877,13 @@
         <v>66</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -9899,13 +9897,13 @@
         <v>5</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -9919,13 +9917,13 @@
         <v>66</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -9939,13 +9937,13 @@
         <v>66</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -9960,10 +9958,10 @@
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -9978,10 +9976,10 @@
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -9996,10 +9994,10 @@
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10014,10 +10012,10 @@
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="18" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10031,13 +10029,13 @@
         <v>67</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10051,13 +10049,13 @@
         <v>67</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10072,10 +10070,10 @@
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10089,13 +10087,13 @@
         <v>4</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10109,13 +10107,13 @@
         <v>4</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10129,13 +10127,13 @@
         <v>4</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10149,13 +10147,13 @@
         <v>66</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10169,13 +10167,13 @@
         <v>66</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10189,13 +10187,13 @@
         <v>66</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10209,13 +10207,13 @@
         <v>65</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10229,13 +10227,13 @@
         <v>67</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10249,13 +10247,13 @@
         <v>67</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10269,13 +10267,13 @@
         <v>67</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10289,13 +10287,13 @@
         <v>5</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10309,13 +10307,13 @@
         <v>4</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10329,13 +10327,13 @@
         <v>4</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10349,13 +10347,13 @@
         <v>66</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10369,13 +10367,13 @@
         <v>5</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10389,13 +10387,13 @@
         <v>5</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10409,13 +10407,13 @@
         <v>66</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10429,13 +10427,13 @@
         <v>67</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10449,13 +10447,13 @@
         <v>4</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10469,13 +10467,13 @@
         <v>4</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10490,10 +10488,10 @@
       </c>
       <c r="D94" s="15"/>
       <c r="E94" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10507,13 +10505,13 @@
         <v>6</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10527,13 +10525,13 @@
         <v>6</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10547,13 +10545,13 @@
         <v>66</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10567,13 +10565,13 @@
         <v>5</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10587,13 +10585,13 @@
         <v>5</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10607,13 +10605,13 @@
         <v>6</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10621,19 +10619,19 @@
         <v>167</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10647,13 +10645,13 @@
         <v>5</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10668,10 +10666,10 @@
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10685,13 +10683,13 @@
         <v>6</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10705,13 +10703,13 @@
         <v>6</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10725,13 +10723,13 @@
         <v>4</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10745,13 +10743,13 @@
         <v>66</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10765,13 +10763,13 @@
         <v>4</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10785,13 +10783,13 @@
         <v>4</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10806,10 +10804,10 @@
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="18" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10824,10 +10822,10 @@
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10840,10 +10838,10 @@
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="18" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10857,13 +10855,13 @@
         <v>4</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10877,13 +10875,13 @@
         <v>4</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10897,13 +10895,13 @@
         <v>65</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10917,13 +10915,13 @@
         <v>65</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10937,13 +10935,13 @@
         <v>4</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10957,13 +10955,13 @@
         <v>66</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -10977,13 +10975,13 @@
         <v>4</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10997,13 +10995,13 @@
         <v>6</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11018,10 +11016,10 @@
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="18" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11036,10 +11034,10 @@
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="18" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11053,13 +11051,13 @@
         <v>65</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11073,13 +11071,13 @@
         <v>65</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11093,13 +11091,13 @@
         <v>66</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11113,13 +11111,13 @@
         <v>6</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11133,13 +11131,13 @@
         <v>6</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11153,13 +11151,13 @@
         <v>66</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11173,13 +11171,13 @@
         <v>66</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11194,10 +11192,10 @@
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="18" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11211,13 +11209,13 @@
         <v>4</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11231,13 +11229,13 @@
         <v>6</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11251,13 +11249,13 @@
         <v>4</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11271,13 +11269,13 @@
         <v>66</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11291,13 +11289,13 @@
         <v>66</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11311,13 +11309,13 @@
         <v>4</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11331,13 +11329,13 @@
         <v>65</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E137" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11352,10 +11350,10 @@
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11369,13 +11367,13 @@
         <v>4</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E139" s="18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11389,13 +11387,13 @@
         <v>5</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E140" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11409,13 +11407,13 @@
         <v>5</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E141" s="18" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11429,13 +11427,13 @@
         <v>66</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E142" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11449,13 +11447,13 @@
         <v>66</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E143" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11469,13 +11467,13 @@
         <v>4</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11489,13 +11487,13 @@
         <v>66</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11509,13 +11507,13 @@
         <v>66</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11529,13 +11527,13 @@
         <v>6</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E147" s="18" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11549,13 +11547,13 @@
         <v>6</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E148" s="18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11569,13 +11567,13 @@
         <v>6</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E149" s="18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11589,13 +11587,13 @@
         <v>66</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11609,13 +11607,13 @@
         <v>4</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11630,10 +11628,10 @@
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="18" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11648,10 +11646,10 @@
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="18" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11665,13 +11663,13 @@
         <v>66</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E154" s="18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11685,13 +11683,13 @@
         <v>66</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11705,13 +11703,13 @@
         <v>66</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11725,13 +11723,13 @@
         <v>65</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11745,13 +11743,13 @@
         <v>65</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11765,13 +11763,13 @@
         <v>4</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11785,13 +11783,13 @@
         <v>5</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11805,13 +11803,13 @@
         <v>66</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11825,13 +11823,13 @@
         <v>4</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11845,13 +11843,13 @@
         <v>4</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E163" s="18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11865,13 +11863,13 @@
         <v>6</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11885,13 +11883,13 @@
         <v>6</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11905,13 +11903,13 @@
         <v>67</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E166" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11925,13 +11923,13 @@
         <v>67</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11945,13 +11943,13 @@
         <v>4</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -11965,13 +11963,13 @@
         <v>4</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11985,13 +11983,13 @@
         <v>6</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12005,13 +12003,13 @@
         <v>6</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F171" s="13" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12025,13 +12023,13 @@
         <v>6</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12045,13 +12043,13 @@
         <v>6</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12065,13 +12063,13 @@
         <v>6</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E174" s="18" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -12085,13 +12083,13 @@
         <v>5</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E175" s="18" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -12105,13 +12103,13 @@
         <v>5</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E176" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -12125,13 +12123,13 @@
         <v>5</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E177" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F177" s="13" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12145,13 +12143,13 @@
         <v>66</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E178" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12165,13 +12163,13 @@
         <v>67</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E179" s="18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -12185,13 +12183,13 @@
         <v>5</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E180" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -12205,13 +12203,13 @@
         <v>5</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E181" s="18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F181" s="13" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -12225,13 +12223,13 @@
         <v>5</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12245,13 +12243,13 @@
         <v>67</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E183" s="18" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12265,13 +12263,13 @@
         <v>67</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E184" s="18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12285,13 +12283,13 @@
         <v>67</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E185" s="18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12306,10 +12304,10 @@
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="18" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12324,10 +12322,10 @@
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12342,10 +12340,10 @@
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12359,13 +12357,13 @@
         <v>4</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E189" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -12379,13 +12377,13 @@
         <v>5</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E190" s="18" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12399,13 +12397,13 @@
         <v>66</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E191" s="18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F191" s="13" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12419,13 +12417,13 @@
         <v>66</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E192" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12439,13 +12437,13 @@
         <v>66</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E193" s="18" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12459,13 +12457,13 @@
         <v>66</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E194" s="18" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12479,13 +12477,13 @@
         <v>66</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E195" s="18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F195" s="13" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12499,13 +12497,13 @@
         <v>67</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E196" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12519,13 +12517,13 @@
         <v>67</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E197" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12539,13 +12537,13 @@
         <v>67</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E198" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12559,13 +12557,13 @@
         <v>67</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E199" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12579,13 +12577,13 @@
         <v>67</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E200" s="18" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F200" s="13" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12599,13 +12597,13 @@
         <v>67</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E201" s="18" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F201" s="13" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12619,13 +12617,13 @@
         <v>5</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E202" s="18" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12639,13 +12637,13 @@
         <v>66</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E203" s="18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F203" s="13" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12660,10 +12658,10 @@
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F204" s="13" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12677,13 +12675,13 @@
         <v>66</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E205" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F205" s="13" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12697,13 +12695,13 @@
         <v>66</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E206" s="18" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F206" s="13" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12718,10 +12716,10 @@
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F207" s="13" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12735,13 +12733,13 @@
         <v>6</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E208" s="18" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F208" s="13" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12755,13 +12753,13 @@
         <v>66</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E209" s="18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F209" s="13" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12775,13 +12773,13 @@
         <v>66</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E210" s="18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12796,10 +12794,10 @@
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12813,13 +12811,13 @@
         <v>6</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E212" s="18" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12833,13 +12831,13 @@
         <v>6</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E213" s="24" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F213" s="13" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12853,13 +12851,13 @@
         <v>6</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E214" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F214" s="13" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12873,13 +12871,13 @@
         <v>6</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E215" s="18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F215" s="13" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12894,10 +12892,10 @@
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="18" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F216" s="13" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12912,10 +12910,10 @@
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="18" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F217" s="13" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12930,10 +12928,10 @@
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="18" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F218" s="13" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12948,10 +12946,10 @@
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F219" s="13" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12965,13 +12963,13 @@
         <v>65</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E220" s="18" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F220" s="13" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12985,13 +12983,13 @@
         <v>6</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E221" s="18" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F221" s="13" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13005,13 +13003,13 @@
         <v>6</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E222" s="18" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F222" s="13" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13025,13 +13023,13 @@
         <v>65</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E223" s="18" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F223" s="13" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13045,13 +13043,13 @@
         <v>5</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E224" s="18" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F224" s="13" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13065,13 +13063,13 @@
         <v>6</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E225" s="18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F225" s="13" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -13085,13 +13083,13 @@
         <v>5</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E226" s="18" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F226" s="13" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -13105,13 +13103,13 @@
         <v>5</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E227" s="18" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F227" s="13" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -13125,13 +13123,13 @@
         <v>5</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E228" s="18" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F228" s="13" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13145,13 +13143,13 @@
         <v>66</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E229" s="18" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F229" s="13" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13165,13 +13163,13 @@
         <v>66</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E230" s="18" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F230" s="13" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13185,13 +13183,13 @@
         <v>66</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E231" s="18" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F231" s="13" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13205,13 +13203,13 @@
         <v>5</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E232" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F232" s="13" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13225,13 +13223,13 @@
         <v>5</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E233" s="18" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F233" s="13" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13245,13 +13243,13 @@
         <v>66</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E234" s="18" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F234" s="13" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13265,13 +13263,13 @@
         <v>66</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E235" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F235" s="13" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13285,13 +13283,13 @@
         <v>66</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E236" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F236" s="13" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13305,13 +13303,13 @@
         <v>66</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E237" s="18" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F237" s="13" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13325,13 +13323,13 @@
         <v>6</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E238" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F238" s="13" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13345,13 +13343,13 @@
         <v>65</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E239" s="18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F239" s="13" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13365,13 +13363,13 @@
         <v>65</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E240" s="18" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F240" s="13" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13385,13 +13383,13 @@
         <v>65</v>
       </c>
       <c r="D241" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E241" s="18" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F241" s="13" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13406,10 +13404,10 @@
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F242" s="13" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13423,13 +13421,13 @@
         <v>65</v>
       </c>
       <c r="D243" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E243" s="18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F243" s="13" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13444,10 +13442,10 @@
       </c>
       <c r="D244" s="15"/>
       <c r="E244" s="18" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F244" s="13" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13461,13 +13459,13 @@
         <v>65</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E245" s="18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F245" s="13" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13481,13 +13479,13 @@
         <v>65</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E246" s="18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F246" s="13" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13502,10 +13500,10 @@
       </c>
       <c r="D247" s="15"/>
       <c r="E247" s="18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F247" s="13" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13519,13 +13517,13 @@
         <v>67</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E248" s="18" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F248" s="13" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13539,13 +13537,13 @@
         <v>67</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E249" s="18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F249" s="13" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13559,13 +13557,13 @@
         <v>67</v>
       </c>
       <c r="D250" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E250" s="18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F250" s="13" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13579,13 +13577,13 @@
         <v>66</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E251" s="18" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F251" s="13" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13599,13 +13597,13 @@
         <v>66</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E252" s="18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F252" s="13" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13619,13 +13617,13 @@
         <v>66</v>
       </c>
       <c r="D253" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E253" s="18" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F253" s="13" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13639,13 +13637,13 @@
         <v>66</v>
       </c>
       <c r="D254" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E254" s="18" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F254" s="13" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13659,13 +13657,13 @@
         <v>5</v>
       </c>
       <c r="D255" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E255" s="18" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F255" s="13" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13679,13 +13677,13 @@
         <v>67</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E256" s="18" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F256" s="13" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13699,13 +13697,13 @@
         <v>67</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E257" s="18" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F257" s="13" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13719,13 +13717,13 @@
         <v>4</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E258" s="18" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F258" s="13" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13739,13 +13737,13 @@
         <v>4</v>
       </c>
       <c r="D259" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E259" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F259" s="13" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13759,13 +13757,13 @@
         <v>4</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E260" s="18" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F260" s="13" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13780,10 +13778,10 @@
       </c>
       <c r="D261" s="9"/>
       <c r="E261" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F261" s="13" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13797,13 +13795,13 @@
         <v>65</v>
       </c>
       <c r="D262" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E262" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F262" s="13" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13817,13 +13815,13 @@
         <v>6</v>
       </c>
       <c r="D263" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E263" s="18" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F263" s="13" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13837,13 +13835,13 @@
         <v>67</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E264" s="18" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F264" s="13" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13857,13 +13855,13 @@
         <v>66</v>
       </c>
       <c r="D265" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E265" s="18" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F265" s="13" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13877,13 +13875,13 @@
         <v>6</v>
       </c>
       <c r="D266" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E266" s="18" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F266" s="13" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13897,13 +13895,13 @@
         <v>6</v>
       </c>
       <c r="D267" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E267" s="18" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F267" s="13" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13917,13 +13915,13 @@
         <v>6</v>
       </c>
       <c r="D268" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E268" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F268" s="13" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13937,13 +13935,13 @@
         <v>5</v>
       </c>
       <c r="D269" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E269" s="18" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F269" s="13" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13957,13 +13955,13 @@
         <v>6</v>
       </c>
       <c r="D270" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E270" s="18" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F270" s="13" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13977,13 +13975,13 @@
         <v>4</v>
       </c>
       <c r="D271" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E271" s="18" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F271" s="13" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13997,13 +13995,13 @@
         <v>6</v>
       </c>
       <c r="D272" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E272" s="18" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F272" s="18" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14017,13 +14015,13 @@
         <v>5</v>
       </c>
       <c r="D273" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E273" s="18" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F273" s="13" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14037,13 +14035,13 @@
         <v>65</v>
       </c>
       <c r="D274" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E274" s="18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F274" s="13" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14057,13 +14055,13 @@
         <v>66</v>
       </c>
       <c r="D275" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E275" s="18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F275" s="13" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14077,13 +14075,13 @@
         <v>4</v>
       </c>
       <c r="D276" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E276" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F276" s="13" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14097,13 +14095,13 @@
         <v>66</v>
       </c>
       <c r="D277" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E277" s="18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F277" s="13" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14117,13 +14115,13 @@
         <v>66</v>
       </c>
       <c r="D278" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E278" s="18" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F278" s="13" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14137,13 +14135,13 @@
         <v>67</v>
       </c>
       <c r="D279" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E279" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F279" s="13" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14157,13 +14155,13 @@
         <v>5</v>
       </c>
       <c r="D280" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E280" s="18" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F280" s="13" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14177,13 +14175,13 @@
         <v>66</v>
       </c>
       <c r="D281" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E281" s="18" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F281" s="13" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14197,13 +14195,13 @@
         <v>66</v>
       </c>
       <c r="D282" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E282" s="18" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F282" s="13" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14218,10 +14216,10 @@
       </c>
       <c r="D283" s="15"/>
       <c r="E283" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F283" s="13" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14235,13 +14233,13 @@
         <v>67</v>
       </c>
       <c r="D284" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E284" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F284" s="13" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14255,13 +14253,13 @@
         <v>5</v>
       </c>
       <c r="D285" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E285" s="18" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F285" s="13" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14275,13 +14273,13 @@
         <v>4</v>
       </c>
       <c r="D286" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E286" s="18" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F286" s="13" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14295,13 +14293,13 @@
         <v>6</v>
       </c>
       <c r="D287" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E287" s="18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F287" s="18" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14315,13 +14313,13 @@
         <v>4</v>
       </c>
       <c r="D288" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E288" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F288" s="13" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14336,10 +14334,10 @@
       </c>
       <c r="D289" s="15"/>
       <c r="E289" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F289" s="13" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14354,10 +14352,10 @@
       </c>
       <c r="D290" s="15"/>
       <c r="E290" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F290" s="13" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14372,10 +14370,10 @@
       </c>
       <c r="D291" s="15"/>
       <c r="E291" s="18" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F291" s="13" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14389,13 +14387,13 @@
         <v>65</v>
       </c>
       <c r="D292" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E292" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F292" s="13" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14409,13 +14407,13 @@
         <v>65</v>
       </c>
       <c r="D293" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E293" s="18" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F293" s="13" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14429,13 +14427,13 @@
         <v>67</v>
       </c>
       <c r="D294" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E294" s="18" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F294" s="13" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14449,13 +14447,13 @@
         <v>65</v>
       </c>
       <c r="D295" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E295" s="18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F295" s="13" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14469,13 +14467,13 @@
         <v>65</v>
       </c>
       <c r="D296" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E296" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F296" s="13" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14489,13 +14487,13 @@
         <v>4</v>
       </c>
       <c r="D297" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E297" s="18" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F297" s="13" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14509,13 +14507,13 @@
         <v>6</v>
       </c>
       <c r="D298" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E298" s="18" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F298" s="13" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14529,13 +14527,13 @@
         <v>6</v>
       </c>
       <c r="D299" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E299" s="18" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F299" s="13" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14549,13 +14547,13 @@
         <v>5</v>
       </c>
       <c r="D300" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E300" s="18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F300" s="13" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14569,13 +14567,13 @@
         <v>4</v>
       </c>
       <c r="D301" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E301" s="18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F301" s="13" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14589,13 +14587,13 @@
         <v>65</v>
       </c>
       <c r="D302" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E302" s="18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F302" s="13" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14609,13 +14607,13 @@
         <v>65</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E303" s="18" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F303" s="13" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14629,13 +14627,13 @@
         <v>65</v>
       </c>
       <c r="D304" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E304" s="18" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F304" s="13" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14649,13 +14647,13 @@
         <v>4</v>
       </c>
       <c r="D305" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E305" s="18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F305" s="13" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14669,13 +14667,13 @@
         <v>4</v>
       </c>
       <c r="D306" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E306" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F306" s="13" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14689,13 +14687,13 @@
         <v>6</v>
       </c>
       <c r="D307" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E307" s="18" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F307" s="13" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14709,13 +14707,13 @@
         <v>5</v>
       </c>
       <c r="D308" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E308" s="18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F308" s="13" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14729,13 +14727,13 @@
         <v>5</v>
       </c>
       <c r="D309" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E309" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F309" s="13" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14749,13 +14747,13 @@
         <v>4</v>
       </c>
       <c r="D310" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E310" s="18" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F310" s="13" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14769,13 +14767,13 @@
         <v>67</v>
       </c>
       <c r="D311" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E311" s="18" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F311" s="13" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14789,13 +14787,13 @@
         <v>5</v>
       </c>
       <c r="D312" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E312" s="18" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F312" s="13" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14809,13 +14807,13 @@
         <v>5</v>
       </c>
       <c r="D313" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E313" s="18" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F313" s="13" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14829,13 +14827,13 @@
         <v>66</v>
       </c>
       <c r="D314" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E314" s="18" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F314" s="13" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14849,13 +14847,13 @@
         <v>66</v>
       </c>
       <c r="D315" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E315" s="18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F315" s="13" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -14869,13 +14867,13 @@
         <v>5</v>
       </c>
       <c r="D316" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E316" s="18" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F316" s="13" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14890,10 +14888,10 @@
       </c>
       <c r="D317" s="15"/>
       <c r="E317" s="18" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F317" s="13" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14907,13 +14905,13 @@
         <v>67</v>
       </c>
       <c r="D318" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E318" s="18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F318" s="13" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14927,13 +14925,13 @@
         <v>65</v>
       </c>
       <c r="D319" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E319" s="18" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F319" s="13" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14947,13 +14945,13 @@
         <v>4</v>
       </c>
       <c r="D320" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E320" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F320" s="13" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14967,13 +14965,13 @@
         <v>4</v>
       </c>
       <c r="D321" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E321" s="18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F321" s="13" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14987,13 +14985,13 @@
         <v>65</v>
       </c>
       <c r="D322" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E322" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F322" s="13" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15007,13 +15005,13 @@
         <v>67</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E323" s="18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F323" s="13" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15027,13 +15025,13 @@
         <v>4</v>
       </c>
       <c r="D324" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E324" s="18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F324" s="13" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15047,13 +15045,13 @@
         <v>4</v>
       </c>
       <c r="D325" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E325" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F325" s="13" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15067,13 +15065,13 @@
         <v>4</v>
       </c>
       <c r="D326" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E326" s="18" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F326" s="13" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15087,13 +15085,13 @@
         <v>65</v>
       </c>
       <c r="D327" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E327" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F327" s="13" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15107,13 +15105,13 @@
         <v>67</v>
       </c>
       <c r="D328" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E328" s="18" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F328" s="13" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15127,13 +15125,13 @@
         <v>5</v>
       </c>
       <c r="D329" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E329" s="18" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F329" s="13" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15147,13 +15145,13 @@
         <v>5</v>
       </c>
       <c r="D330" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E330" s="18" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F330" s="13" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15167,13 +15165,13 @@
         <v>5</v>
       </c>
       <c r="D331" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E331" s="18" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F331" s="13" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15187,13 +15185,13 @@
         <v>4</v>
       </c>
       <c r="D332" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E332" s="18" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F332" s="13" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15207,13 +15205,13 @@
         <v>4</v>
       </c>
       <c r="D333" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E333" s="18" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F333" s="13" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15227,13 +15225,13 @@
         <v>5</v>
       </c>
       <c r="D334" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E334" s="18" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F334" s="13" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15247,13 +15245,13 @@
         <v>66</v>
       </c>
       <c r="D335" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E335" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F335" s="13" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15268,10 +15266,10 @@
       </c>
       <c r="D336" s="9"/>
       <c r="E336" s="18" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F336" s="13" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15285,13 +15283,13 @@
         <v>66</v>
       </c>
       <c r="D337" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E337" s="18" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F337" s="13" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15305,13 +15303,13 @@
         <v>65</v>
       </c>
       <c r="D338" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E338" s="18" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F338" s="13" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15325,13 +15323,13 @@
         <v>6</v>
       </c>
       <c r="D339" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E339" s="18" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F339" s="13" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15345,13 +15343,13 @@
         <v>6</v>
       </c>
       <c r="D340" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E340" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F340" s="13" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15365,13 +15363,13 @@
         <v>6</v>
       </c>
       <c r="D341" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E341" s="18" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F341" s="13" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -15946,8 +15944,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15958,7 +15956,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>408</v>
+        <v>1222</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -15966,7 +15964,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>409</v>
+        <v>1221</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -15974,7 +15972,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -15982,7 +15980,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -15990,7 +15988,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -15998,7 +15996,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -16006,7 +16004,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -16014,7 +16012,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -16022,7 +16020,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -16030,7 +16028,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -16053,7 +16051,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/src/integrationTest/resources/Staff Data Test incorrect function.xlsx
+++ b/src/integrationTest/resources/Staff Data Test incorrect function.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5AD8E6-77D4-134B-A8A8-1CF80B9D5C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB84312-4DEA-9947-9DBC-996484CCF093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
-    <sheet name="Terminology" sheetId="12" r:id="rId2"/>
-    <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
-    <sheet name="User Type" sheetId="9" r:id="rId4"/>
-    <sheet name="Services" sheetId="7" r:id="rId5"/>
-    <sheet name="Base Locations" sheetId="6" r:id="rId6"/>
-    <sheet name="Region" sheetId="3" r:id="rId7"/>
-    <sheet name="Roles" sheetId="4" r:id="rId8"/>
-    <sheet name="Validations" sheetId="10" r:id="rId9"/>
+    <sheet name="VERSION" sheetId="13" r:id="rId2"/>
+    <sheet name="Terminology" sheetId="12" r:id="rId3"/>
+    <sheet name="Staff Data" sheetId="1" r:id="rId4"/>
+    <sheet name="User Type" sheetId="9" r:id="rId5"/>
+    <sheet name="Services" sheetId="7" r:id="rId6"/>
+    <sheet name="Base Locations" sheetId="6" r:id="rId7"/>
+    <sheet name="Region" sheetId="3" r:id="rId8"/>
+    <sheet name="Roles" sheetId="4" r:id="rId9"/>
+    <sheet name="Validations" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1225">
   <si>
     <t>Region</t>
   </si>
@@ -3711,6 +3716,12 @@
   </si>
   <si>
     <t>Senior Legal Caseworker</t>
+  </si>
+  <si>
+    <t>File version</t>
+  </si>
+  <si>
+    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -7501,7 +7512,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E101DC8B-2814-9347-B051-72E2C6616E88}">
+  <dimension ref="A6:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA3DD7B-56C8-415F-8BF5-7830E7EEFD36}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -7700,14 +7759,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C96D2-347F-4382-9909-BFD50517035D}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -8187,7 +8246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55979B3E-2A8A-4780-BEB6-4F2717396A4D}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -8232,7 +8291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA924CA-E283-4D75-8C37-FFE0D56B674F}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -8614,7 +8673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18EAE82-4C6E-4D34-88FC-425D89B632D4}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -15847,7 +15906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9252D81-E1C7-47AA-BB50-43B308C890E9}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -15937,7 +15996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175CCEB2-E456-408C-B252-200A77CE2E77}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -16037,29 +16096,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/integrationTest/resources/Staff Data Test incorrect function.xlsx
+++ b/src/integrationTest/resources/Staff Data Test incorrect function.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB84312-4DEA-9947-9DBC-996484CCF093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5AD8E6-77D4-134B-A8A8-1CF80B9D5C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="11" r:id="rId1"/>
-    <sheet name="VERSION" sheetId="13" r:id="rId2"/>
-    <sheet name="Terminology" sheetId="12" r:id="rId3"/>
-    <sheet name="Staff Data" sheetId="1" r:id="rId4"/>
-    <sheet name="User Type" sheetId="9" r:id="rId5"/>
-    <sheet name="Services" sheetId="7" r:id="rId6"/>
-    <sheet name="Base Locations" sheetId="6" r:id="rId7"/>
-    <sheet name="Region" sheetId="3" r:id="rId8"/>
-    <sheet name="Roles" sheetId="4" r:id="rId9"/>
-    <sheet name="Validations" sheetId="10" r:id="rId10"/>
+    <sheet name="Terminology" sheetId="12" r:id="rId2"/>
+    <sheet name="Staff Data" sheetId="1" r:id="rId3"/>
+    <sheet name="User Type" sheetId="9" r:id="rId4"/>
+    <sheet name="Services" sheetId="7" r:id="rId5"/>
+    <sheet name="Base Locations" sheetId="6" r:id="rId6"/>
+    <sheet name="Region" sheetId="3" r:id="rId7"/>
+    <sheet name="Roles" sheetId="4" r:id="rId8"/>
+    <sheet name="Validations" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,11 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="1223">
   <si>
     <t>Region</t>
   </si>
@@ -3716,12 +3711,6 @@
   </si>
   <si>
     <t>Senior Legal Caseworker</t>
-  </si>
-  <si>
-    <t>File version</t>
-  </si>
-  <si>
-    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -7512,55 +7501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E101DC8B-2814-9347-B051-72E2C6616E88}">
-  <dimension ref="A6:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA3DD7B-56C8-415F-8BF5-7830E7EEFD36}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -7759,14 +7700,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C96D2-347F-4382-9909-BFD50517035D}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -8246,7 +8187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55979B3E-2A8A-4780-BEB6-4F2717396A4D}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -8291,7 +8232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA924CA-E283-4D75-8C37-FFE0D56B674F}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -8673,7 +8614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18EAE82-4C6E-4D34-88FC-425D89B632D4}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -15906,7 +15847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9252D81-E1C7-47AA-BB50-43B308C890E9}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -15996,7 +15937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175CCEB2-E456-408C-B252-200A77CE2E77}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -16096,4 +16037,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6684E-13C2-44AC-9BB0-45674920F5DD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>